--- a/Excel spreadsheets/March.xlsx
+++ b/Excel spreadsheets/March.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\Desktop\Projetos\project sales goal\Excel spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A8A100-400D-42A7-8086-E7CA2070B302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23F2638-C2D4-44E4-9E08-81698DFC0576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{68ED5FCD-D377-4BA7-9DBE-F386F8CCD573}"/>
   </bookViews>
@@ -3075,9 +3075,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3392,10 +3393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBE0790-BAA3-416C-9285-C9F16BA6AD76}">
-  <dimension ref="A1:B1001"/>
+  <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3404,7 +3405,7 @@
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1000</v>
       </c>
@@ -3412,15 +3413,15 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>22876</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>62876</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3428,7 +3429,7 @@
         <v>31953</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3436,15 +3437,16 @@
         <v>17180</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>32777</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3452,7 +3454,7 @@
         <v>39083</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3460,7 +3462,7 @@
         <v>41854</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3468,7 +3470,7 @@
         <v>34360</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3476,7 +3478,7 @@
         <v>28188</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3484,7 +3486,7 @@
         <v>17780</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3492,7 +3494,7 @@
         <v>15382</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3500,7 +3502,7 @@
         <v>23070</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3508,7 +3510,7 @@
         <v>26447</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3516,7 +3518,7 @@
         <v>47437</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3524,7 +3526,7 @@
         <v>36368</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -11415,5 +11417,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>